--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1770030.139171397</v>
+        <v>1864593.843139616</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.774383803</v>
+        <v>6663746.095359931</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116356.600945282</v>
+        <v>806345.8827095099</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10284739.79350692</v>
+        <v>10399822.48566341</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>145.598346347803</v>
       </c>
       <c r="C2" t="n">
-        <v>159.4368283879286</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>72.50477145174293</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>180.9550379164568</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,19 +746,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>97.64871907367009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>105.8712504714823</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>66.70865780356723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>59.24433418100821</v>
       </c>
       <c r="S3" t="n">
-        <v>156.5912426325231</v>
+        <v>159.4432253296167</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8980292624121</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>54.30080173848766</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.90169565731826</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>152.4531265631662</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>214.3888609467085</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>100.8102636448311</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>76.71587097450818</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>90.73779827449012</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>142.9424972118197</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1025,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>218.3658910248678</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>141.5372677955179</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>250.4044428170433</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>132.1393324161322</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>156.1422350450012</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>203.1977700471487</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>174.6402025854773</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560552</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>111.918756612868</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1816,22 +1818,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>143.0812453977542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534531</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292717</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>48.12066034807837</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>163.6898441249706</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634822</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2137,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>16.99141685203459</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>173.4997763473791</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0633545968137</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2526,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>87.83762944231049</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.40697986446698</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>257.1828947285539</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>55.42986125998421</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,16 +3006,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>256.8049254792404</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>72.06565116814971</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -3235,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>201.3600324842798</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.95376192076147</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>270.0697021486461</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3563,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3667,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>136.5352793691452</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>42.55093335596817</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>316.0687887395546</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,13 +3900,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.225757137646</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>169.5855588296283</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3995,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>174.6402025854791</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>224.7562560951389</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>202.4425172951282</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2268.654643287636</v>
+        <v>1631.299377163643</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1262.336860223231</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1262.336860223231</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>876.5486076249867</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>465.5627028353792</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>47.30902621369988</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>47.30902621369988</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369988</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>138.9642385015914</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>397.076446806072</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>769.5640925927211</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1200.634914689016</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1624.048915811685</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>1978.679112633677</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2243.673398054138</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2292.214167804445</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2109.431301222166</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2109.431301222166</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2109.431301222166</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1778.368413878595</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1778.368413878595</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1778.368413878595</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>1778.368413878595</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>643.6546745992293</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>469.2016453181024</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>320.2672356568511</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>114.6915088435658</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369988</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>108.2048630683012</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>130.1591986422613</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>501.7702691852946</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>987.402082387484</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1501.594138030033</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>1905.563735119905</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2212.781883695915</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2365.451310684994</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2305.608548885996</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2144.554785926787</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>1945.051103087518</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>1716.871275549728</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1481.719167317986</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1227.481810589784</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1019.630310384251</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>811.8700116192974</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>102.158320899041</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>102.158320899041</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>102.158320899041</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>102.158320899041</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>102.158320899041</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>102.158320899041</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>102.158320899041</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>102.158320899041</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>47.30902621369988</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>88.80529410181632</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>197.4326649365669</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>322.3541198950608</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>449.7398382896755</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>551.3848716885946</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>614.8390752546209</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>574.5343321664207</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>420.5412750319093</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>203.986870035234</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>102.158320899041</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>102.158320899041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>102.158320899041</v>
       </c>
       <c r="W4" t="n">
-        <v>650.638205444305</v>
+        <v>102.158320899041</v>
       </c>
       <c r="X4" t="n">
-        <v>422.6486545462877</v>
+        <v>102.158320899041</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>102.158320899041</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2605.494749326818</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2386.860082298881</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2386.860082298881</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2386.860082298881</v>
+        <v>2102.921886014929</v>
       </c>
       <c r="W5" t="n">
-        <v>2386.860082298881</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="X5" t="n">
-        <v>2386.860082298881</v>
+        <v>1750.153230744814</v>
       </c>
       <c r="Y5" t="n">
-        <v>1996.720750323069</v>
+        <v>1750.153230744814</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,13 +4655,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4671,22 +4673,22 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>184.2708856551155</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>184.2708856551155</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>184.2708856551155</v>
+        <v>478.1404579642301</v>
       </c>
       <c r="Y7" t="n">
-        <v>184.2708856551155</v>
+        <v>257.3478788207</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4814,16 +4816,16 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2280.518797353589</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>1949.455910010018</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.687254739904</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="X8" t="n">
-        <v>1596.687254739904</v>
+        <v>2170.551953897502</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,34 +4892,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>350.9495687306105</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2226.323723437757</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>1857.361206497345</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1499.095507890594</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1113.30725529235</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>702.3213505027427</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>287.2489003477392</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>129.5294710093541</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>443.8173522282013</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1098.540684363501</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1549.57489761191</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2083.106802283834</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N11" t="n">
-        <v>2629.885619342616</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O11" t="n">
-        <v>3132.858090221953</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>3846.213177668899</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4304.691380177887</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4376.62861244114</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4266.337943968235</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4060.360196352457</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4060.360196352457</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3729.297309008886</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3376.528653738772</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3003.062895477692</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2612.923563501879</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.5643102977479</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>788.1112810166209</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499142</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>333.4048583767992</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>197.0417582094176</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>106.5398638472852</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>181.20984173944</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>419.4740407197869</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324524</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1112.634136258447</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C13" t="n">
-        <v>943.6979533305399</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D13" t="n">
-        <v>793.5813139182042</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>645.668220335811</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
-        <v>498.7782728379007</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G13" t="n">
-        <v>331.0754362126196</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>184.8582494304774</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>132.6552046957584</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446347</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>653.2021860931309</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>997.3592316926799</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1338.767608398545</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="V13" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="W13" t="n">
-        <v>1743.064731130234</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X13" t="n">
-        <v>1515.075180232217</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y13" t="n">
-        <v>1294.282601088687</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2366.187894490604</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>1997.225377550193</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1638.959678943442</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1253.171426345198</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>842.1855215555904</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>427.1130714005869</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H14" t="n">
-        <v>129.5294710093541</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I14" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>443.8173522282012</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1046.401594395699</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L14" t="n">
-        <v>1497.435807644108</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M14" t="n">
-        <v>2030.967712316032</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N14" t="n">
-        <v>2577.746529374814</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O14" t="n">
-        <v>3080.719000254151</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>3794.074087701097</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4252.552290210085</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4376.62861244114</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4376.62861244114</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4376.62861244114</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4200.224367405304</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3869.161480061734</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3516.392824791619</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3142.927066530539</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2752.787734554726</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.564310297748</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>788.111281016621</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499143</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767993</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0417582094174</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>181.2098417394401</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>419.4740407197872</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324524</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1112.634136258447</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="C16" t="n">
-        <v>943.69795333054</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="D16" t="n">
-        <v>793.5813139182043</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E16" t="n">
-        <v>645.6682203358112</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F16" t="n">
-        <v>498.7782728379008</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G16" t="n">
-        <v>331.0754362126197</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H16" t="n">
-        <v>184.8582494304775</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>132.6552046957583</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6423876446347</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>653.2021860931308</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>997.3592316926797</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1338.767608398544</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1858.48454666266</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1666.798662489486</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1666.798662489486</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1666.798662489486</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1666.798662489486</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>1666.798662489486</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>1438.809111591469</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y16" t="n">
-        <v>1294.282601088687</v>
+        <v>619.8559841413794</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551629</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001597</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089269</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>785.6651881176192</v>
+        <v>806.1613418786392</v>
       </c>
       <c r="L17" t="n">
-        <v>1236.699401366028</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M17" t="n">
-        <v>2215.249704195856</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N17" t="n">
-        <v>2762.028521254639</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3641.993171584093</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5543,22 +5545,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423041</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C19" t="n">
-        <v>260.9043113423041</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D19" t="n">
-        <v>260.9043113423041</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E19" t="n">
-        <v>260.9043113423041</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F19" t="n">
-        <v>260.9043113423041</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5695,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838516</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858343</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423041</v>
+        <v>1169.26932608234</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5783,13 +5785,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5841,16 +5843,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>747.3928343215987</v>
+        <v>3628.450831365613</v>
       </c>
       <c r="C22" t="n">
-        <v>578.4566513936918</v>
+        <v>3459.514648437706</v>
       </c>
       <c r="D22" t="n">
-        <v>428.340011981356</v>
+        <v>3309.398009025371</v>
       </c>
       <c r="E22" t="n">
-        <v>280.4269183989629</v>
+        <v>3161.484915442978</v>
       </c>
       <c r="F22" t="n">
-        <v>280.4269183989629</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="G22" t="n">
-        <v>112.7240817736819</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104703</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104703</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="V22" t="n">
-        <v>1667.240599230347</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="W22" t="n">
-        <v>1377.823429193386</v>
+        <v>3985.35159553664</v>
       </c>
       <c r="X22" t="n">
-        <v>1149.833878295369</v>
+        <v>3985.35159553664</v>
       </c>
       <c r="Y22" t="n">
-        <v>929.0412991518384</v>
+        <v>3810.099296195853</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5993,13 +5995,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750059</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3942.370854773037</v>
+        <v>244.109877475479</v>
       </c>
       <c r="C25" t="n">
-        <v>3773.43467184513</v>
+        <v>244.109877475479</v>
       </c>
       <c r="D25" t="n">
-        <v>3623.318032432794</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>3475.404938850401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>3328.514991352491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945067</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>4688.221265177249</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>4599.496386952693</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>4599.496386952693</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>4599.496386952693</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>4344.811898746806</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W25" t="n">
-        <v>4344.811898746806</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X25" t="n">
-        <v>4344.811898746806</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="Y25" t="n">
-        <v>4124.019319603276</v>
+        <v>425.7583423057187</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6227,16 +6229,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608922</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814247</v>
+        <v>1237.706702364129</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O26" t="n">
         <v>4075.973927750059</v>
@@ -6257,19 +6259,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>432.2000540015823</v>
+        <v>1036.81000435856</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>867.8738214306527</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>717.7571820183169</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>569.8440884359238</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6406,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="U28" t="n">
-        <v>1606.732307116217</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1352.04781891033</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W28" t="n">
-        <v>1062.630648873369</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="X28" t="n">
-        <v>834.6410979753522</v>
+        <v>1439.251048332329</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.848518831822</v>
+        <v>1218.458469188799</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>351.3014367967928</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>685.1208104866391</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1549.639626139994</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2528.189928969822</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N29" t="n">
-        <v>3507.942201196469</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075806</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6494,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3154.54203436749</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>2980.089005086363</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>2671.917140419656</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>2525.382582446541</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>2389.019482279159</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>2279.510296318564</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>2373.187565809181</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>4777.907369012238</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>4648.469482505718</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>4455.826482183573</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>4227.758635317989</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>3992.606527086246</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>3738.369170358044</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>3530.517670152512</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>3322.757371387558</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.6864413838516</v>
+        <v>3605.731835219849</v>
       </c>
       <c r="C31" t="n">
-        <v>709.6864413838516</v>
+        <v>3605.731835219849</v>
       </c>
       <c r="D31" t="n">
-        <v>709.6864413838516</v>
+        <v>3455.615195807513</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>3307.70210222512</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>3014.594967945067</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>2917.269290763413</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>4496.535381004075</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>4274.768765573601</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>4015.369850948106</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208122</v>
+        <v>4015.369850948106</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838516</v>
+        <v>4015.369850948106</v>
       </c>
       <c r="X31" t="n">
-        <v>709.6864413838516</v>
+        <v>3787.380300050088</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.6864413838516</v>
+        <v>3787.380300050088</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6679,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>351.3014367967928</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>685.1208104866391</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1549.639626139994</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2528.189928969822</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N32" t="n">
-        <v>3507.942201196469</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075806</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6727,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3400.125497098743</v>
+        <v>778.311032277282</v>
       </c>
       <c r="C34" t="n">
-        <v>3231.189314170836</v>
+        <v>609.3748493493752</v>
       </c>
       <c r="D34" t="n">
-        <v>3231.189314170836</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E34" t="n">
-        <v>3231.189314170836</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F34" t="n">
-        <v>3231.189314170836</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G34" t="n">
-        <v>3063.486477545555</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>4778.051722419721</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
-        <v>4778.051722419721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>4574.657750213378</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>4319.973262007491</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>4030.55609197053</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="X34" t="n">
-        <v>3802.566541072513</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="Y34" t="n">
-        <v>3581.773961928983</v>
+        <v>778.311032277282</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
@@ -7035,7 +7037,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7120,25 +7122,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104703</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1956.343466104703</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1701.658977898816</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1412.241807861855</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1184.252256963838</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1184.252256963838</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,52 +7174,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>750.1800661608922</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.698881814247</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>963.7739809829121</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C40" t="n">
-        <v>794.8377980550052</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D40" t="n">
-        <v>644.7211586426695</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F40" t="n">
         <v>506.8067350374723</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1667.240599230347</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V40" t="n">
-        <v>1412.55611102446</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="W40" t="n">
-        <v>1412.55611102446</v>
+        <v>1163.643339221623</v>
       </c>
       <c r="X40" t="n">
-        <v>1184.566560126442</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.7739809829121</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1972.793246711595</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>1603.830729771183</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1245.565031164433</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>859.7767785661886</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>448.790873776581</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>129.5294710093541</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>129.5294710093541</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>276.4117032078482</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>879.6012556988869</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1330.635468947296</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>1864.16737361922</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2410.946190678002</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3290.910841007457</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4004.265928454402</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4252.552290210085</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4376.62861244114</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4266.337943968235</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4060.360196352457</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.829719626293</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3475.766832282723</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3122.998177012608</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>2749.532418751528</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2359.393086775717</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.5643102977472</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>788.1112810166202</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>639.1768713553689</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>479.9394163499134</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>333.4048583767984</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>197.0417582094165</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>106.539863847284</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>181.2098417394401</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>419.4740407197872</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1722010324524</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1233.448526254768</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2428.43244070338</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2586.07399834998</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2585.929644942495</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2456.491758435975</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2263.848758113831</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2035.780911248246</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1546.391446288302</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1338.539946082769</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1130.779647317815</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>256.4687551767297</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="C43" t="n">
-        <v>87.5325722488228</v>
+        <v>533.2127443498364</v>
       </c>
       <c r="D43" t="n">
-        <v>87.5325722488228</v>
+        <v>383.0961049375006</v>
       </c>
       <c r="E43" t="n">
-        <v>87.5325722488228</v>
+        <v>235.1830113551075</v>
       </c>
       <c r="F43" t="n">
-        <v>87.5325722488228</v>
+        <v>235.1830113551075</v>
       </c>
       <c r="G43" t="n">
-        <v>87.5325722488228</v>
+        <v>235.1830113551075</v>
       </c>
       <c r="H43" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>132.6552046957583</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6423876446347</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>653.2021860931308</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>997.3592316926797</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1338.767608398544</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1858.48454666266</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1687.186002390308</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1465.419386959834</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1176.316520085478</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V43" t="n">
-        <v>1176.316520085478</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="W43" t="n">
-        <v>886.8993500485169</v>
+        <v>1163.643339221624</v>
       </c>
       <c r="X43" t="n">
-        <v>658.9097991504996</v>
+        <v>935.6537883236062</v>
       </c>
       <c r="Y43" t="n">
-        <v>438.1172200069694</v>
+        <v>714.8612091800761</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2366.187894490604</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>1997.225377550193</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1638.959678943442</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1253.171426345198</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>842.1855215555904</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>427.1130714005869</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>129.5294710093541</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>276.4117032078482</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>610.2310768976945</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L44" t="n">
-        <v>1061.265290146103</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M44" t="n">
-        <v>1814.833895215377</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N44" t="n">
-        <v>2794.586167442023</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
-        <v>3674.550817771478</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4069.325184128656</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4317.611545884338</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4376.62861244114</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4376.62861244114</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4376.62861244114</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4200.224367405302</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3869.161480061732</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3516.392824791618</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3142.927066530538</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2752.787734554726</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>962.564310297748</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>788.111281016621</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>639.1768713553697</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>479.9394163499143</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>333.4048583767993</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>197.0417582094174</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>106.5398638472849</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>181.2098417394401</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K45" t="n">
-        <v>419.4740407197872</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1722010324531</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.448526254769</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1706.971569809223</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2117.932849227278</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2428.432440703381</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2586.073998349981</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2585.929644942496</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2456.491758435976</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2263.848758113832</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2035.780911248247</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1800.628803016504</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1546.391446288303</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1338.53994608277</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1130.779647317816</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.5325722488228</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C46" t="n">
-        <v>87.5325722488228</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D46" t="n">
-        <v>87.5325722488228</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
-        <v>87.5325722488228</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>87.5325722488228</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>87.5325722488228</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6552046957583</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6423876446347</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>653.2021860931308</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>997.3592316926797</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1338.767608398544</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1638.097207318958</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>1870.704707752617</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1948.315003905132</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1756.629119731958</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1534.862504301484</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1245.759637427127</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V46" t="n">
-        <v>991.0751492212406</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W46" t="n">
-        <v>701.6579791842801</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X46" t="n">
-        <v>473.6684282862627</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y46" t="n">
-        <v>269.1810370790625</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>53.60948744535417</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.513533492832</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>13.0506724307576</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>271.4796651289408</v>
+        <v>288.047814956104</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>189.7998007892656</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9179,13 +9181,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>160.3329896347539</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9641,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277313</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>133.2530576400263</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277313</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>67.53663776704337</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>67.53663776704337</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>133.2530576400263</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>272.0910896981741</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,13 +11074,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>222.2592933306557</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>138.4655293423192</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23476,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>83.32522828944232</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>76.35496937342472</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>36.69671640534436</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23704,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>75.50340795434062</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>131.7113198338589</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.335964134057605</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>127.7635980622862</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>45.08487700471571</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.552118421398688</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>101.9313958891314</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.01406815846426</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24655,13 +24657,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>29.02894347705899</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.00410138658495</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>29.40691272637252</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>76.54982185006264</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>84.85180572133305</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>116.8782182611758</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696682</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>9.898683277423999</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>183.158722033069</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>94.85293691389882</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25786,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25803,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>6.529257776674825</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>20.1834665018136</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25913,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>76.3549693734229</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>61.76674224145208</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.14213605696656</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>953483.1788865192</v>
+        <v>952707.9378846234</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841842.5111889329</v>
+        <v>881494.7672302298</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>841842.5111889332</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881494.7672302295</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>841842.511188933</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841842.5111889332</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>515134.6888165128</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="F2" t="n">
-        <v>515134.6888165126</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="G2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="I2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="J2" t="n">
         <v>536060.4122974275</v>
@@ -26341,19 +26343,19 @@
         <v>536060.4122974275</v>
       </c>
       <c r="L2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="O2" t="n">
-        <v>515134.6888165126</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="P2" t="n">
-        <v>515134.6888165128</v>
+        <v>536060.4122974279</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>493391.684410649</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>91792.63957446812</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697413.3866606103</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27506.01327461985</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>154726.5356832161</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>21342.09858220058</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104633.2536641692</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209922.4154630333</v>
+        <v>235704.9591760454</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26426,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="E4" t="n">
-        <v>22188.2897432122</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="F4" t="n">
-        <v>22188.28974321221</v>
+        <v>28561.83935289577</v>
       </c>
       <c r="G4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289572</v>
+        <v>28561.83935289578</v>
       </c>
       <c r="I4" t="n">
-        <v>28561.8393528957</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="J4" t="n">
+        <v>28561.83935289577</v>
+      </c>
+      <c r="K4" t="n">
+        <v>28561.83935289579</v>
+      </c>
+      <c r="L4" t="n">
         <v>28561.83935289578</v>
       </c>
-      <c r="K4" t="n">
-        <v>28561.83935289577</v>
-      </c>
-      <c r="L4" t="n">
-        <v>28561.83935289577</v>
-      </c>
       <c r="M4" t="n">
-        <v>28561.83935289578</v>
+        <v>28561.83935289579</v>
       </c>
       <c r="N4" t="n">
         <v>28561.83935289578</v>
       </c>
       <c r="O4" t="n">
-        <v>22188.28974321229</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="P4" t="n">
-        <v>22188.2897432123</v>
+        <v>28561.83935289575</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>76261.10613140131</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90281.88698203923</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>90281.88698203923</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26506,10 +26508,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>90281.88698203923</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
-        <v>90281.88698203923</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328546.1780825962</v>
+        <v>-251154.5550597043</v>
       </c>
       <c r="C6" t="n">
-        <v>261421.7011319486</v>
+        <v>169629.0615574802</v>
       </c>
       <c r="D6" t="n">
-        <v>261421.7011319482</v>
+        <v>261421.7011319484</v>
       </c>
       <c r="E6" t="n">
-        <v>-294748.8745693489</v>
+        <v>-316262.3593025889</v>
       </c>
       <c r="F6" t="n">
-        <v>402664.5120912612</v>
+        <v>411115.0546908183</v>
       </c>
       <c r="G6" t="n">
-        <v>383609.0414161981</v>
+        <v>411115.0546908182</v>
       </c>
       <c r="H6" t="n">
-        <v>411115.0546908181</v>
+        <v>411115.0546908183</v>
       </c>
       <c r="I6" t="n">
         <v>411115.0546908181</v>
       </c>
       <c r="J6" t="n">
-        <v>234691.8354982252</v>
+        <v>256388.519007602</v>
       </c>
       <c r="K6" t="n">
+        <v>389772.9561086175</v>
+      </c>
+      <c r="L6" t="n">
         <v>411115.0546908181</v>
       </c>
-      <c r="L6" t="n">
-        <v>411115.054690818</v>
-      </c>
       <c r="M6" t="n">
-        <v>306481.8010266491</v>
+        <v>281472.7398518734</v>
       </c>
       <c r="N6" t="n">
-        <v>411115.0546908182</v>
+        <v>411115.0546908178</v>
       </c>
       <c r="O6" t="n">
-        <v>402664.5120912611</v>
+        <v>411115.0546908184</v>
       </c>
       <c r="P6" t="n">
-        <v>402664.5120912613</v>
+        <v>411115.0546908185</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>306.3599178435505</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712485</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26826,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="P4" t="n">
-        <v>1094.157153110285</v>
+        <v>1194.51293060493</v>
       </c>
     </row>
   </sheetData>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>306.3599178435505</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>71.38374637353616</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712485</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>82.92444508330711</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>419.8698803557293</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3557774946453</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712485</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330711</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557293</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>591.3628276712485</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>82.92444508330711</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557293</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3557774946453</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>237.1354953156776</v>
       </c>
       <c r="C2" t="n">
-        <v>205.836063383079</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>326.8617025836455</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958793</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,13 +27466,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>59.99636138173085</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27543,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>138.8367272514146</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>124.7748477279345</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>286.28889559408</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>209.8071273620828</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>83.67791453448139</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>184.8097612583152</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.80735538553375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27791,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>7.343764364169374</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>109.6868997127714</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>98.83652590036968</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>92.89577304195203</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.231597659672564</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>12.61309953212165</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>47.48116877452656</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>104.5303118676344</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>156.663840801574</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>194.3553476787783</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>216.2577725589802</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>219.7570494095249</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>207.5103501811558</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>177.1052829579894</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>132.9986917709657</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>77.36434648940676</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>28.06503166978857</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>5.391318755216651</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.09852781277380508</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.658962842154052</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>6.364193765014135</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>22.68797504784785</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>62.257537644037</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>106.4080480683585</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>143.0787521966506</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>166.966155224735</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>171.385252530233</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>156.7840232382932</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>125.8330009723821</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>84.11602876338391</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>40.91349997163493</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>12.23994577422109</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>2.656082683945498</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.0433528185627666</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.5524523108654188</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>4.911803272967091</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>16.61374767584369</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>39.05837837818511</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>64.18491393509137</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>82.13459174448238</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>86.59941087502196</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>84.54027044361456</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>78.08662299395941</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>66.81659585230481</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>46.26034759437612</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>24.84026481400328</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>9.627737090263706</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.36047805551588</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03013376241084106</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32093,7 +32095,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32318,7 +32320,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
@@ -32558,7 +32560,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>92.58102251302184</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>260.7194023277582</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>376.2501472592415</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>435.42507282454</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>427.6909102249182</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>358.2123200222145</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>267.6709953742025</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>123.0079925564209</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>61.51094631777914</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>22.17609653935366</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>375.3647177202356</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>490.5371850527166</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>519.3859147904533</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>408.0500980705783</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>310.321362197989</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>154.2115424132115</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>41.91542210920852</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>109.7246170047985</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>126.1832878368625</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>128.6724428228432</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>102.6717509079991</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>64.0951551171983</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060961</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35023,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>72.66387097298238</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35649,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>608.6709516843412</v>
+        <v>625.2391015115044</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923319</v>
@@ -35659,7 +35661,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P14" t="n">
         <v>720.5606943908542</v>
@@ -35741,7 +35743,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>526.991087344666</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
         <v>988.434649323059</v>
@@ -35899,13 +35901,13 @@
         <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>559.0949758541256</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35968,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
@@ -36206,7 +36208,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36361,7 +36363,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200632</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
         <v>988.434649323059</v>
@@ -36370,7 +36372,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36595,10 +36597,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>470.4443441954267</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>625.7042053200632</v>
       </c>
       <c r="M26" t="n">
         <v>988.434649323059</v>
@@ -36607,7 +36609,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>258.3236387357559</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554004</v>
@@ -36844,7 +36846,7 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193716</v>
@@ -36853,7 +36855,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>258.3236387357559</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>470.4443441954267</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>609.2823762535745</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>761.1804091608823</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_8_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1858853.7284314</v>
+        <v>1862259.219555849</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6663746.095359936</v>
+        <v>6663746.095359937</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>414.0711398554625</v>
       </c>
       <c r="H2" t="n">
-        <v>326.8617025836455</v>
+        <v>191.1723346489864</v>
       </c>
       <c r="I2" t="n">
-        <v>162.9947207958795</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.2752266736402</v>
+        <v>180.955037916457</v>
       </c>
       <c r="T2" t="n">
-        <v>217.7045308089147</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2471250950627</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6845543210566</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.8712504714823</v>
+        <v>105.8712504714824</v>
       </c>
       <c r="I3" t="n">
-        <v>66.70865780356728</v>
+        <v>66.70865780356742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.2443341810083</v>
+        <v>13.62198573549844</v>
       </c>
       <c r="S3" t="n">
-        <v>15.20174324431844</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>197.5086460108761</v>
       </c>
       <c r="U3" t="n">
         <v>225.8980292624121</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>121.384264862798</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>44.29008249197041</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>304.4053514208621</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>134.257450437519</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>30.60408762095413</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>52.10844059186253</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>387.2937698995328</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,13 +1293,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>96.74944290141741</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>91.1343134186853</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.75769145492404</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>117.6769141031072</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,19 +1584,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>6.38006817584762</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>139.8654338699384</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>241.770546867044</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534529</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>59.90320919298897</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>80.76468634461081</v>
       </c>
     </row>
     <row r="23">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>263.9220480001073</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250816</v>
       </c>
     </row>
     <row r="26">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>118.3069478219491</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>128.2808324720647</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3192,10 +3192,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>68.87809734582501</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>104.0438938896184</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292508</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>88.23797643592225</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>37.86386236727981</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>169.6734776883582</v>
       </c>
     </row>
     <row r="44">
@@ -4033,7 +4033,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>155.0462988210299</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1757.141328283357</v>
+        <v>2182.668444102702</v>
       </c>
       <c r="C2" t="n">
-        <v>1757.141328283357</v>
+        <v>1813.705927162291</v>
       </c>
       <c r="D2" t="n">
-        <v>1757.141328283357</v>
+        <v>1455.44022855554</v>
       </c>
       <c r="E2" t="n">
-        <v>1371.353075685113</v>
+        <v>1069.651975957296</v>
       </c>
       <c r="F2" t="n">
-        <v>960.3671708955055</v>
+        <v>658.6660711676884</v>
       </c>
       <c r="G2" t="n">
-        <v>542.1134942738262</v>
+        <v>240.4123945460091</v>
       </c>
       <c r="H2" t="n">
-        <v>211.9501583307498</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="I2" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="J2" t="n">
-        <v>138.9642385015914</v>
+        <v>138.9642385015902</v>
       </c>
       <c r="K2" t="n">
-        <v>397.0764468060718</v>
+        <v>397.0764468060696</v>
       </c>
       <c r="L2" t="n">
-        <v>769.5640925927205</v>
+        <v>769.5640925927171</v>
       </c>
       <c r="M2" t="n">
-        <v>1200.634914689015</v>
+        <v>1200.63491468901</v>
       </c>
       <c r="N2" t="n">
-        <v>1624.048915811683</v>
+        <v>1624.048915811677</v>
       </c>
       <c r="O2" t="n">
-        <v>1978.679112633675</v>
+        <v>1978.679112633668</v>
       </c>
       <c r="P2" t="n">
-        <v>2243.673398054135</v>
+        <v>2243.673398054127</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684982</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684982</v>
       </c>
       <c r="S2" t="n">
-        <v>2230.829869600506</v>
+        <v>2182.668444102702</v>
       </c>
       <c r="T2" t="n">
-        <v>2010.926303126855</v>
+        <v>2182.668444102702</v>
       </c>
       <c r="U2" t="n">
-        <v>1757.141328283357</v>
+        <v>2182.668444102702</v>
       </c>
       <c r="V2" t="n">
-        <v>1757.141328283357</v>
+        <v>2182.668444102702</v>
       </c>
       <c r="W2" t="n">
-        <v>1757.141328283357</v>
+        <v>2182.668444102702</v>
       </c>
       <c r="X2" t="n">
-        <v>1757.141328283357</v>
+        <v>2182.668444102702</v>
       </c>
       <c r="Y2" t="n">
-        <v>1757.141328283357</v>
+        <v>2182.668444102702</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.8568241913216</v>
+        <v>850.791617806416</v>
       </c>
       <c r="C3" t="n">
-        <v>814.4037949101946</v>
+        <v>676.338588525289</v>
       </c>
       <c r="D3" t="n">
-        <v>665.4693852489434</v>
+        <v>527.4041788640377</v>
       </c>
       <c r="E3" t="n">
-        <v>506.2319302434878</v>
+        <v>368.1667238585821</v>
       </c>
       <c r="F3" t="n">
-        <v>359.6973722703728</v>
+        <v>221.6321658854671</v>
       </c>
       <c r="G3" t="n">
         <v>221.6321658854671</v>
       </c>
       <c r="H3" t="n">
-        <v>114.6915088435658</v>
+        <v>114.6915088435657</v>
       </c>
       <c r="I3" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="J3" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="K3" t="n">
-        <v>278.0105538592119</v>
+        <v>130.1591986422567</v>
       </c>
       <c r="L3" t="n">
-        <v>501.7702691852938</v>
+        <v>501.7702691852888</v>
       </c>
       <c r="M3" t="n">
-        <v>987.4020823874829</v>
+        <v>987.4020823874769</v>
       </c>
       <c r="N3" t="n">
-        <v>1501.594138030031</v>
+        <v>1501.594138030024</v>
       </c>
       <c r="O3" t="n">
-        <v>1905.563735119903</v>
+        <v>1905.563735119895</v>
       </c>
       <c r="P3" t="n">
-        <v>2212.781883695912</v>
+        <v>2212.781883695904</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.451310684991</v>
+        <v>2365.451310684982</v>
       </c>
       <c r="R3" t="n">
-        <v>2305.608548885993</v>
+        <v>2351.691729133974</v>
       </c>
       <c r="S3" t="n">
-        <v>2290.253252679611</v>
+        <v>2351.691729133974</v>
       </c>
       <c r="T3" t="n">
-        <v>2290.253252679611</v>
+        <v>2152.188046294705</v>
       </c>
       <c r="U3" t="n">
-        <v>2062.073425141821</v>
+        <v>1924.008218756915</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.921316910078</v>
+        <v>1688.856110525172</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.683960181876</v>
+        <v>1434.618753796971</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.832459976343</v>
+        <v>1226.767253591438</v>
       </c>
       <c r="Y3" t="n">
-        <v>1157.07216121139</v>
+        <v>1019.006954826484</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>614.8390752546198</v>
+        <v>342.1120672940031</v>
       </c>
       <c r="C4" t="n">
-        <v>614.8390752546198</v>
+        <v>342.1120672940031</v>
       </c>
       <c r="D4" t="n">
-        <v>464.7224358422841</v>
+        <v>342.1120672940031</v>
       </c>
       <c r="E4" t="n">
-        <v>316.809342259891</v>
+        <v>194.19897371161</v>
       </c>
       <c r="F4" t="n">
-        <v>169.9193947619806</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="G4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="H4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="I4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="J4" t="n">
-        <v>47.30902621369983</v>
+        <v>47.30902621369965</v>
       </c>
       <c r="K4" t="n">
-        <v>88.80529410181612</v>
+        <v>88.80529410181555</v>
       </c>
       <c r="L4" t="n">
-        <v>197.4326649365665</v>
+        <v>197.4326649365654</v>
       </c>
       <c r="M4" t="n">
-        <v>322.3541198950602</v>
+        <v>322.3541198950586</v>
       </c>
       <c r="N4" t="n">
-        <v>449.7398382896748</v>
+        <v>449.7398382896726</v>
       </c>
       <c r="O4" t="n">
-        <v>551.3848716885936</v>
+        <v>551.384871688591</v>
       </c>
       <c r="P4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546168</v>
       </c>
       <c r="Q4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546168</v>
       </c>
       <c r="R4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546168</v>
       </c>
       <c r="S4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546168</v>
       </c>
       <c r="T4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546168</v>
       </c>
       <c r="U4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546168</v>
       </c>
       <c r="V4" t="n">
-        <v>614.8390752546198</v>
+        <v>614.8390752546168</v>
       </c>
       <c r="W4" t="n">
-        <v>614.8390752546198</v>
+        <v>570.1016181920204</v>
       </c>
       <c r="X4" t="n">
-        <v>614.8390752546198</v>
+        <v>342.1120672940031</v>
       </c>
       <c r="Y4" t="n">
-        <v>614.8390752546198</v>
+        <v>342.1120672940031</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2366.086203674652</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C5" t="n">
-        <v>1997.12368673424</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D5" t="n">
-        <v>1638.85798812749</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E5" t="n">
-        <v>1253.069735529245</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>842.0838307396377</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2330.329327562361</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>1999.266440218791</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>1646.497784948677</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>1273.032026687597</v>
       </c>
       <c r="Y5" t="n">
-        <v>2366.086203674652</v>
+        <v>882.8926947117852</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,19 +4649,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>580.2158906240411</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>433.3259431261307</v>
       </c>
       <c r="G7" t="n">
-        <v>84.85620163951003</v>
+        <v>264.3261428644631</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>106.5777702969933</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4840,16 +4840,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.7225141620388</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="C10" t="n">
-        <v>301.7863312341319</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D10" t="n">
-        <v>151.6696918217962</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4998,16 +4998,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="X10" t="n">
-        <v>470.7225141620388</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="Y10" t="n">
-        <v>470.7225141620388</v>
+        <v>351.9727148150932</v>
       </c>
     </row>
     <row r="11">
@@ -5044,16 +5044,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232732</v>
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5120,10 +5120,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320242</v>
@@ -5138,22 +5138,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5162,10 +5162,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>1071.825331633856</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>902.8891487059489</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>752.7725092936131</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>604.85941571122</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>457.9694682133096</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783409</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413803</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="X13" t="n">
-        <v>391.866433243363</v>
+        <v>1253.473796464095</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998329</v>
+        <v>1253.473796464095</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5284,16 +5284,16 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>3082.932479700092</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5311,13 +5311,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.9417306852383</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C16" t="n">
-        <v>102.0055477573314</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D16" t="n">
-        <v>102.0055477573314</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>102.0055477573314</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>102.0055477573314</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>102.0055477573314</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5469,19 +5469,19 @@
         <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570255</v>
+        <v>1338.614146438102</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590082</v>
+        <v>1110.624595540085</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.5901955154781</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="17">
@@ -5494,13 +5494,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5545,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5585,7 +5585,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>578.4172407837245</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C19" t="n">
-        <v>409.4810578558177</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D19" t="n">
-        <v>409.4810578558177</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5691,34 +5691,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952191</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104706</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862234</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689061</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258587</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="U19" t="n">
-        <v>1208.847835655512</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V19" t="n">
-        <v>1208.847835655512</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W19" t="n">
-        <v>1208.847835655512</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X19" t="n">
-        <v>980.8582847574944</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y19" t="n">
-        <v>760.0657056139643</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5782,22 +5782,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,64 +5807,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>492.7083461157126</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="C22" t="n">
-        <v>323.7721631878057</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="D22" t="n">
-        <v>323.7721631878057</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E22" t="n">
-        <v>323.7721631878057</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>323.7721631878057</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>156.0693265625247</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5940,22 +5940,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894825</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.3568109459524</v>
+        <v>591.8022834018255</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5992,16 +5992,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1070.832524924162</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1521.86673817257</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2055.398642844495</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903277</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6086,22 +6086,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1322.725653781988</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1056.137726509153</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.137726509153</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3451473656224</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C28" t="n">
-        <v>951.7264155301116</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D28" t="n">
-        <v>801.6097761177758</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E28" t="n">
-        <v>653.6966825353827</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F28" t="n">
-        <v>506.8067350374723</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1836.841498607786</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1836.841498607786</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1582.157010401899</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1582.157010401899</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1354.167459503881</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>1133.374880360351</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,46 +6469,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1963.918173296941</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1545.250526232427</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1256.147659358071</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1001.463171152184</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>712.0460011152229</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>484.0564502172056</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>263.2638710736754</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C34" t="n">
-        <v>561.2936040684043</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>411.1769646560685</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
         <v>263.2638710736754</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1796.939173159378</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1507.836306285022</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V34" t="n">
-        <v>1253.151818079135</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W34" t="n">
-        <v>963.7346480421742</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X34" t="n">
-        <v>963.7346480421742</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y34" t="n">
-        <v>742.942068898644</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="35">
@@ -6916,73 +6916,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551608</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089248</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>419.3276555045771</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>753.1470291944236</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1617.665844847778</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2151.197749519703</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3130.95002174635</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331036</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7177,25 +7177,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>1067.865561890629</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1518.899775139038</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7204,16 +7204,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>331.580251073499</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>331.580251073499</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>184.6903035755886</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W40" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X40" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="41">
@@ -7390,46 +7390,46 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>387.79385975162</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>721.6132334414665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1172.647446689875</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2151.197749519704</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7438,19 +7438,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>674.3568109459524</v>
+        <v>578.4172407837245</v>
       </c>
       <c r="C43" t="n">
-        <v>674.3568109459524</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D43" t="n">
-        <v>524.2401715336166</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E43" t="n">
-        <v>485.9938459101016</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F43" t="n">
-        <v>339.1038984121913</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V43" t="n">
-        <v>1412.556111024461</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W43" t="n">
-        <v>1123.1389409875</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X43" t="n">
-        <v>895.1493900894825</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="Y43" t="n">
-        <v>674.3568109459524</v>
+        <v>760.0657056139643</v>
       </c>
     </row>
     <row r="44">
@@ -7627,22 +7627,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
@@ -7651,19 +7651,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2368.748013620957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>2915.526830679739</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3530.568798281487</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7681,13 +7681,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839442</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>463.2435610898349</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>242.4509819463048</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>64.58008902262983</v>
+        <v>64.5800890226302</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>115.1204337631298</v>
       </c>
       <c r="L3" t="n">
-        <v>221.4955420540137</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8692,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>288.0478149561034</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8932,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>173.2204606877393</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>146.0713065388583</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>288.0478149561032</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>410.4190035206666</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>136.2499899971285</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10825,19 +10825,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>285.0508825989993</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>104.3976710547476</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11308,13 +11308,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>64.28566532692525</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>272.8828616575881</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>48.34889415592107</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.3749467384732</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>146.6575644666526</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>118.0986533615246</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>44.44129133856885</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>84.8518057213318</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -24180,7 +24180,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>137.819967007484</v>
       </c>
     </row>
     <row r="23">
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>22.60095033648366</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>148.7699267806263</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>101.2420014542201</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>91.26811680410449</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>150.6708519303442</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>182.1679443159945</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>77.78783182310598</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25599,7 +25599,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>108.5701002792894</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>48.91117566373654</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>70.6633565680072</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>952707.9378846234</v>
+        <v>952707.9378846233</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302296</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881494.7672302296</v>
+        <v>881494.7672302297</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>881494.7672302297</v>
+        <v>881494.7672302295</v>
       </c>
     </row>
     <row r="16">
@@ -26319,43 +26319,43 @@
         <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>536060.4122974279</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="G2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="I2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="J2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="K2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="L2" t="n">
         <v>536060.4122974275</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="O2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974277</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>493391.6844106482</v>
+        <v>493391.6844106456</v>
       </c>
       <c r="C3" t="n">
-        <v>91792.63957446889</v>
+        <v>91792.63957447142</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.508950901442561e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154726.535683216</v>
+        <v>154726.5356832154</v>
       </c>
       <c r="K3" t="n">
-        <v>21342.09858220075</v>
+        <v>21342.09858220134</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235704.9591760457</v>
+        <v>235704.9591760464</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26429,13 +26429,13 @@
         <v>28561.83935289575</v>
       </c>
       <c r="F4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="G4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="H4" t="n">
-        <v>28561.83935289569</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="I4" t="n">
         <v>28561.83935289575</v>
@@ -26444,16 +26444,16 @@
         <v>28561.83935289575</v>
       </c>
       <c r="K4" t="n">
-        <v>28561.83935289575</v>
+        <v>28561.83935289576</v>
       </c>
       <c r="L4" t="n">
         <v>28561.83935289575</v>
       </c>
       <c r="M4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289575</v>
       </c>
       <c r="N4" t="n">
-        <v>28561.83935289577</v>
+        <v>28561.83935289572</v>
       </c>
       <c r="O4" t="n">
         <v>28561.83935289575</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76261.10613140125</v>
+        <v>76261.10613140107</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26487,7 +26487,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26502,7 +26502,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-251154.5550597037</v>
+        <v>-251154.5550597017</v>
       </c>
       <c r="C6" t="n">
-        <v>169629.0615574796</v>
+        <v>169629.0615574771</v>
       </c>
       <c r="D6" t="n">
-        <v>261421.7011319484</v>
+        <v>261421.7011319485</v>
       </c>
       <c r="E6" t="n">
-        <v>-316934.3142048462</v>
+        <v>-316329.5547928142</v>
       </c>
       <c r="F6" t="n">
-        <v>410443.0997885604</v>
+        <v>411047.8592005923</v>
       </c>
       <c r="G6" t="n">
-        <v>410443.0997885603</v>
+        <v>411047.8592005924</v>
       </c>
       <c r="H6" t="n">
-        <v>410443.0997885602</v>
+        <v>411047.8592005926</v>
       </c>
       <c r="I6" t="n">
-        <v>410443.0997885601</v>
+        <v>411047.8592005924</v>
       </c>
       <c r="J6" t="n">
-        <v>255716.5641053444</v>
+        <v>256321.3235173771</v>
       </c>
       <c r="K6" t="n">
-        <v>389101.0012063594</v>
+        <v>389705.7606183911</v>
       </c>
       <c r="L6" t="n">
-        <v>410443.0997885602</v>
+        <v>411047.8592005923</v>
       </c>
       <c r="M6" t="n">
-        <v>280800.7849496155</v>
+        <v>281405.5443616477</v>
       </c>
       <c r="N6" t="n">
-        <v>410443.0997885599</v>
+        <v>411047.8592005924</v>
       </c>
       <c r="O6" t="n">
-        <v>410443.0997885603</v>
+        <v>411047.8592005924</v>
       </c>
       <c r="P6" t="n">
-        <v>410443.0997885599</v>
+        <v>411047.8592005924</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.136188626803201e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435479</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712456</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26925,10 +26925,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-3.136188626803201e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.136188626803201e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>306.3599178435498</v>
+        <v>306.3599178435479</v>
       </c>
       <c r="C3" t="n">
-        <v>71.38374637353677</v>
+        <v>71.38374637353874</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712456</v>
       </c>
       <c r="C4" t="n">
-        <v>82.92444508330777</v>
+        <v>82.92444508331005</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712456</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330777</v>
+        <v>82.92444508331005</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.136188626803201e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.3628276712478</v>
+        <v>591.3628276712456</v>
       </c>
       <c r="K4" t="n">
-        <v>82.92444508330777</v>
+        <v>82.92444508331005</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>135.6893679346592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>162.9947207958797</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>72.5047714517431</v>
+        <v>72.50477145174358</v>
       </c>
       <c r="S2" t="n">
-        <v>47.67981124281667</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.7045308089147</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2471250950627</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.6845543210566</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.62234844551011</v>
       </c>
       <c r="S3" t="n">
-        <v>144.2414820852983</v>
+        <v>159.4432253296168</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5086460108761</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>46.05426218479538</v>
+        <v>167.4385270475933</v>
       </c>
       <c r="H4" t="n">
         <v>157.3153692344725</v>
       </c>
       <c r="I4" t="n">
-        <v>138.8367272514146</v>
+        <v>138.8367272514147</v>
       </c>
       <c r="J4" t="n">
-        <v>54.30080173848775</v>
+        <v>54.30080173848799</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.90169565731837</v>
+        <v>39.90169565731865</v>
       </c>
       <c r="R4" t="n">
-        <v>152.4531265631663</v>
+        <v>152.4531265631664</v>
       </c>
       <c r="S4" t="n">
         <v>214.3888609467086</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>242.2329158446206</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>109.3788185999329</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>82.19086992013877</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>125.566801220841</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>82.85718120047571</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>19.58227584217866</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,13 +28013,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>49.68451974515176</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28070,13 +28070,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>195.3886849179057</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28617,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.358561997638116e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.733694752047692e-12</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.775024258311669e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.944010191971637e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231597659672561</v>
+        <v>1.231597659672554</v>
       </c>
       <c r="H2" t="n">
-        <v>12.61309953212162</v>
+        <v>12.61309953212154</v>
       </c>
       <c r="I2" t="n">
-        <v>47.48116877452646</v>
+        <v>47.48116877452617</v>
       </c>
       <c r="J2" t="n">
-        <v>104.5303118676341</v>
+        <v>104.5303118676335</v>
       </c>
       <c r="K2" t="n">
-        <v>156.6638408015737</v>
+        <v>156.6638408015727</v>
       </c>
       <c r="L2" t="n">
-        <v>194.3553476787778</v>
+        <v>194.3553476787767</v>
       </c>
       <c r="M2" t="n">
-        <v>216.2577725589798</v>
+        <v>216.2577725589784</v>
       </c>
       <c r="N2" t="n">
-        <v>219.7570494095244</v>
+        <v>219.7570494095231</v>
       </c>
       <c r="O2" t="n">
-        <v>207.5103501811554</v>
+        <v>207.5103501811541</v>
       </c>
       <c r="P2" t="n">
-        <v>177.105282957989</v>
+        <v>177.1052829579879</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.9986917709654</v>
+        <v>132.9986917709646</v>
       </c>
       <c r="R2" t="n">
-        <v>77.36434648940659</v>
+        <v>77.3643464894061</v>
       </c>
       <c r="S2" t="n">
-        <v>28.06503166978851</v>
+        <v>28.06503166978834</v>
       </c>
       <c r="T2" t="n">
-        <v>5.391318755216639</v>
+        <v>5.391318755216606</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09852781277380486</v>
+        <v>0.09852781277380426</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6589628421540505</v>
+        <v>0.6589628421540464</v>
       </c>
       <c r="H3" t="n">
-        <v>6.364193765014121</v>
+        <v>6.364193765014082</v>
       </c>
       <c r="I3" t="n">
-        <v>22.6879750478478</v>
+        <v>22.68797504784765</v>
       </c>
       <c r="J3" t="n">
-        <v>62.25753764403686</v>
+        <v>62.25753764403648</v>
       </c>
       <c r="K3" t="n">
-        <v>106.4080480683582</v>
+        <v>106.4080480683576</v>
       </c>
       <c r="L3" t="n">
-        <v>143.0787521966503</v>
+        <v>143.0787521966494</v>
       </c>
       <c r="M3" t="n">
-        <v>166.9661552247346</v>
+        <v>166.9661552247336</v>
       </c>
       <c r="N3" t="n">
-        <v>171.3852525302326</v>
+        <v>171.3852525302316</v>
       </c>
       <c r="O3" t="n">
-        <v>156.7840232382929</v>
+        <v>156.7840232382919</v>
       </c>
       <c r="P3" t="n">
-        <v>125.8330009723818</v>
+        <v>125.833000972381</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.11602876338372</v>
+        <v>84.1160287633832</v>
       </c>
       <c r="R3" t="n">
-        <v>40.91349997163483</v>
+        <v>40.91349997163459</v>
       </c>
       <c r="S3" t="n">
-        <v>12.23994577422106</v>
+        <v>12.23994577422099</v>
       </c>
       <c r="T3" t="n">
-        <v>2.656082683945492</v>
+        <v>2.656082683945476</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0433528185627665</v>
+        <v>0.04335281856276623</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5524523108654176</v>
+        <v>0.5524523108654142</v>
       </c>
       <c r="H4" t="n">
-        <v>4.91180327296708</v>
+        <v>4.91180327296705</v>
       </c>
       <c r="I4" t="n">
-        <v>16.61374767584365</v>
+        <v>16.61374767584355</v>
       </c>
       <c r="J4" t="n">
-        <v>39.05837837818503</v>
+        <v>39.05837837818478</v>
       </c>
       <c r="K4" t="n">
-        <v>64.18491393509123</v>
+        <v>64.18491393509083</v>
       </c>
       <c r="L4" t="n">
-        <v>82.13459174448219</v>
+        <v>82.13459174448168</v>
       </c>
       <c r="M4" t="n">
-        <v>86.59941087502177</v>
+        <v>86.59941087502123</v>
       </c>
       <c r="N4" t="n">
-        <v>84.54027044361438</v>
+        <v>84.54027044361385</v>
       </c>
       <c r="O4" t="n">
-        <v>78.08662299395924</v>
+        <v>78.08662299395876</v>
       </c>
       <c r="P4" t="n">
-        <v>66.81659585230466</v>
+        <v>66.81659585230425</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.26034759437601</v>
+        <v>46.26034759437574</v>
       </c>
       <c r="R4" t="n">
-        <v>24.84026481400323</v>
+        <v>24.84026481400307</v>
       </c>
       <c r="S4" t="n">
-        <v>9.627737090263683</v>
+        <v>9.627737090263624</v>
       </c>
       <c r="T4" t="n">
-        <v>2.360478055515875</v>
+        <v>2.36047805551586</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03013376241084099</v>
+        <v>0.03013376241084081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -32089,7 +32089,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
         <v>557.708647897025</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34222,7 +34222,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>92.58102251302161</v>
+        <v>92.58102251302097</v>
       </c>
       <c r="K2" t="n">
-        <v>260.7194023277578</v>
+        <v>260.7194023277569</v>
       </c>
       <c r="L2" t="n">
-        <v>376.250147259241</v>
+        <v>376.2501472592398</v>
       </c>
       <c r="M2" t="n">
-        <v>435.4250728245395</v>
+        <v>435.4250728245382</v>
       </c>
       <c r="N2" t="n">
-        <v>427.6909102249177</v>
+        <v>427.6909102249164</v>
       </c>
       <c r="O2" t="n">
-        <v>358.212320022214</v>
+        <v>358.2123200222127</v>
       </c>
       <c r="P2" t="n">
-        <v>267.6709953742021</v>
+        <v>267.670995374201</v>
       </c>
       <c r="Q2" t="n">
-        <v>123.0079925564206</v>
+        <v>123.0079925564198</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>233.0318461065779</v>
+        <v>83.68704285712839</v>
       </c>
       <c r="L3" t="n">
-        <v>226.0199144707899</v>
+        <v>375.3647177202345</v>
       </c>
       <c r="M3" t="n">
-        <v>490.5371850527162</v>
+        <v>490.5371850527152</v>
       </c>
       <c r="N3" t="n">
-        <v>519.3859147904528</v>
+        <v>519.3859147904518</v>
       </c>
       <c r="O3" t="n">
-        <v>408.050098070578</v>
+        <v>408.050098070577</v>
       </c>
       <c r="P3" t="n">
-        <v>310.3213621979887</v>
+        <v>310.321362197988</v>
       </c>
       <c r="Q3" t="n">
-        <v>154.2115424132113</v>
+        <v>154.2115424132108</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>41.91542210920838</v>
+        <v>41.91542210920798</v>
       </c>
       <c r="L4" t="n">
-        <v>109.7246170047983</v>
+        <v>109.7246170047978</v>
       </c>
       <c r="M4" t="n">
-        <v>126.1832878368624</v>
+        <v>126.1832878368618</v>
       </c>
       <c r="N4" t="n">
-        <v>128.672442822843</v>
+        <v>128.6724428228424</v>
       </c>
       <c r="O4" t="n">
-        <v>102.6717509079989</v>
+        <v>102.6717509079984</v>
       </c>
       <c r="P4" t="n">
-        <v>64.09515511719815</v>
+        <v>64.09515511719773</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,10 +35029,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35412,19 +35412,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>826.9689307863301</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35652,19 +35652,19 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>681.2734615759584</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>544.8332927582302</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35737,7 +35737,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
         <v>415.1124034525806</v>
@@ -36059,7 +36059,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451132</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789366</v>
@@ -36360,10 +36360,10 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>625.2391015115037</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>866.0091179129988</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,7 +36846,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>327.0369909658411</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37545,19 +37545,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>622.2421691543998</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37566,7 +37566,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>295.1846720234602</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37870,7 +37870,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38028,13 +38028,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>572.3386662151444</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>671.6448478769599</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
